--- a/run_log/run_results/train_history/training_history_run_3.xlsx
+++ b/run_log/run_results/train_history/training_history_run_3.xlsx
@@ -395,111 +395,111 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04907073825597763</v>
+        <v>0.1361090093851089</v>
       </c>
       <c r="B2">
-        <v>0.9858855605125427</v>
+        <v>0.9589046835899353</v>
       </c>
       <c r="C2">
-        <v>0.1323331445455551</v>
+        <v>0.01270137634128332</v>
       </c>
       <c r="D2">
-        <v>0.965008020401001</v>
+        <v>0.9982866048812866</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.007782455068081617</v>
+        <v>0.03866442292928696</v>
       </c>
       <c r="B3">
-        <v>0.9984912872314453</v>
+        <v>0.9925417900085449</v>
       </c>
       <c r="C3">
-        <v>0.02080631256103516</v>
+        <v>0.01010789256542921</v>
       </c>
       <c r="D3">
-        <v>0.9958266615867615</v>
+        <v>0.9985314011573792</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003593978239223361</v>
+        <v>0.028123639523983</v>
       </c>
       <c r="B4">
-        <v>0.9990272521972656</v>
+        <v>0.9924772977828979</v>
       </c>
       <c r="C4">
-        <v>0.02230623178184032</v>
+        <v>0.004994395654648542</v>
       </c>
       <c r="D4">
-        <v>0.9971107840538025</v>
+        <v>0.998653769493103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.00181445456109941</v>
+        <v>0.02112744934856892</v>
       </c>
       <c r="B5">
-        <v>0.9995434284210205</v>
+        <v>0.9935089945793152</v>
       </c>
       <c r="C5">
-        <v>0.006270368117839098</v>
+        <v>0.001030554762110114</v>
       </c>
       <c r="D5">
-        <v>0.9993579387664795</v>
+        <v>0.9993880987167358</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001317244954407215</v>
+        <v>0.01390651520341635</v>
       </c>
       <c r="B6">
-        <v>0.9997022151947021</v>
+        <v>0.996582567691803</v>
       </c>
       <c r="C6">
-        <v>0.002929289825260639</v>
+        <v>0.001292318222112954</v>
       </c>
       <c r="D6">
-        <v>0.9990369081497192</v>
+        <v>0.9992656707763672</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001541440258733928</v>
+        <v>0.01182360760867596</v>
       </c>
       <c r="B7">
-        <v>0.9996029734611511</v>
+        <v>0.9968834519386292</v>
       </c>
       <c r="C7">
-        <v>0.001166939153335989</v>
+        <v>0.00038805918302387</v>
       </c>
       <c r="D7">
-        <v>0.9990369081497192</v>
+        <v>0.9998776316642761</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0008498802199028432</v>
+        <v>0.01216852478682995</v>
       </c>
       <c r="B8">
-        <v>0.9998412132263184</v>
+        <v>0.9970554113388062</v>
       </c>
       <c r="C8">
-        <v>0.004782043397426605</v>
+        <v>0.0003844704478979111</v>
       </c>
       <c r="D8">
-        <v>0.9993579387664795</v>
+        <v>0.9998776316642761</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0006166590028442442</v>
+        <v>0.01036333851516247</v>
       </c>
       <c r="B9">
-        <v>0.9998014569282532</v>
+        <v>0.9972488284111023</v>
       </c>
       <c r="C9">
-        <v>1.167776463262271E-05</v>
+        <v>0.0001792005496099591</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -507,27 +507,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0007359387236647308</v>
+        <v>0.01013538055121899</v>
       </c>
       <c r="B10">
-        <v>0.999781608581543</v>
+        <v>0.9972058534622192</v>
       </c>
       <c r="C10">
-        <v>0.0139949843287468</v>
+        <v>0.0002043738059001043</v>
       </c>
       <c r="D10">
-        <v>0.998715877532959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001241484074853361</v>
+        <v>0.009414365515112877</v>
       </c>
       <c r="B11">
-        <v>0.9997022151947021</v>
+        <v>0.9973993301391602</v>
       </c>
       <c r="C11">
-        <v>2.641842365846969E-05</v>
+        <v>7.145854760892689E-05</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0001857465103967115</v>
+        <v>0.01229505334049463</v>
       </c>
       <c r="B12">
-        <v>0.9999603033065796</v>
+        <v>0.9964965581893921</v>
       </c>
       <c r="C12">
-        <v>1.527853055449668E-05</v>
+        <v>7.885350350989029E-05</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -549,27 +549,27 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>6.092514013289474E-05</v>
+        <v>0.009517963975667953</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.9972273707389832</v>
       </c>
       <c r="C13">
-        <v>0.00113632483407855</v>
+        <v>4.89922495034989E-05</v>
       </c>
       <c r="D13">
-        <v>0.9993579387664795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0007046438404358923</v>
+        <v>0.009159478358924389</v>
       </c>
       <c r="B14">
-        <v>0.9998412132263184</v>
+        <v>0.9975067973136902</v>
       </c>
       <c r="C14">
-        <v>6.874333848827519E-07</v>
+        <v>7.038439071038738E-05</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0003642318479251117</v>
+        <v>0.0102852089330554</v>
       </c>
       <c r="B15">
-        <v>0.9998610615730286</v>
+        <v>0.996797502040863</v>
       </c>
       <c r="C15">
-        <v>2.775890663997416E-07</v>
+        <v>2.73302666755626E-05</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0003741022082976997</v>
+        <v>0.009235069155693054</v>
       </c>
       <c r="B16">
-        <v>0.999900758266449</v>
+        <v>0.9973778128623962</v>
       </c>
       <c r="C16">
-        <v>9.570938885872238E-08</v>
+        <v>2.974271956190933E-05</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0002573379315435886</v>
+        <v>0.009507066570222378</v>
       </c>
       <c r="B17">
-        <v>0.999900758266449</v>
+        <v>0.9971628785133362</v>
       </c>
       <c r="C17">
-        <v>9.450120614928892E-07</v>
+        <v>2.342590960324742E-05</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0009026646730490029</v>
+        <v>0.009460599161684513</v>
       </c>
       <c r="B18">
-        <v>0.9997419118881226</v>
+        <v>0.9972273707389832</v>
       </c>
       <c r="C18">
-        <v>1.461359715904109E-05</v>
+        <v>3.023721546924207E-05</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0002778942580334842</v>
+        <v>0.01005534641444683</v>
       </c>
       <c r="B19">
-        <v>0.9999206066131592</v>
+        <v>0.9970983862876892</v>
       </c>
       <c r="C19">
-        <v>3.80104665964609E-07</v>
+        <v>2.633344229252543E-05</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>3.959398964070715E-05</v>
+        <v>0.01048480812460184</v>
       </c>
       <c r="B20">
-        <v>0.9999801516532898</v>
+        <v>0.9968189597129822</v>
       </c>
       <c r="C20">
-        <v>2.441568724975696E-08</v>
+        <v>2.50649045483442E-05</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>8.639461157144979E-06</v>
+        <v>0.009588534012436867</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9971199035644531</v>
       </c>
       <c r="C21">
-        <v>2.395633380558593E-08</v>
+        <v>2.577550003479701E-05</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0006610709824599326</v>
+        <v>0.0083968136459589</v>
       </c>
       <c r="B22">
-        <v>0.999781608581543</v>
+        <v>0.9976786971092224</v>
       </c>
       <c r="C22">
-        <v>4.098597727875131E-08</v>
+        <v>1.764850821928121E-05</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0001975241611944512</v>
+        <v>0.009256658144295216</v>
       </c>
       <c r="B23">
-        <v>0.9999603033065796</v>
+        <v>0.9972058534622192</v>
       </c>
       <c r="C23">
-        <v>1.555440758238547E-05</v>
+        <v>5.560421413974836E-05</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0001443176151951775</v>
+        <v>0.01049390714615583</v>
       </c>
       <c r="B24">
-        <v>0.9999603033065796</v>
+        <v>0.99686199426651</v>
       </c>
       <c r="C24">
-        <v>1.640859892404478E-07</v>
+        <v>6.46670232526958E-05</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>7.348036888288334E-05</v>
+        <v>0.008817553520202637</v>
       </c>
       <c r="B25">
-        <v>0.9999801516532898</v>
+        <v>0.9975712299346924</v>
       </c>
       <c r="C25">
-        <v>1.366947515180073E-07</v>
+        <v>1.875059570011217E-05</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>7.931120489956811E-05</v>
+        <v>0.009598582051694393</v>
       </c>
       <c r="B26">
-        <v>0.9999603033065796</v>
+        <v>0.9971628785133362</v>
       </c>
       <c r="C26">
-        <v>4.749080062538269E-08</v>
+        <v>1.629848884476814E-05</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0001376889704260975</v>
+        <v>0.009154189378023148</v>
       </c>
       <c r="B27">
-        <v>0.9999404549598694</v>
+        <v>0.9972273707389832</v>
       </c>
       <c r="C27">
-        <v>1.067712407376575E-08</v>
+        <v>2.933229916379787E-05</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>4.22700286435429E-05</v>
+        <v>0.0097627779468894</v>
       </c>
       <c r="B28">
-        <v>0.9999801516532898</v>
+        <v>0.9970983862876892</v>
       </c>
       <c r="C28">
-        <v>7.741510188452594E-08</v>
+        <v>3.89008127967827E-05</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0004980879602953792</v>
+        <v>0.009429940022528172</v>
       </c>
       <c r="B29">
-        <v>0.999900758266449</v>
+        <v>0.9974637627601624</v>
       </c>
       <c r="C29">
-        <v>3.072195227105112E-07</v>
+        <v>2.896509249694645E-05</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0004537162894848734</v>
+        <v>0.01116597559303045</v>
       </c>
       <c r="B30">
-        <v>0.9999206066131592</v>
+        <v>0.9967114925384521</v>
       </c>
       <c r="C30">
-        <v>1.307736511080293E-06</v>
+        <v>6.803328869864345E-05</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>2.806246448017191E-05</v>
+        <v>0.01012442074716091</v>
       </c>
       <c r="B31">
-        <v>0.9999801516532898</v>
+        <v>0.9969264268875122</v>
       </c>
       <c r="C31">
-        <v>9.650985077769292E-08</v>
+        <v>3.724498674273491E-05</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,27 +815,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1.364954914606642E-05</v>
+        <v>0.008495848625898361</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9975067973136902</v>
       </c>
       <c r="C32">
-        <v>0.0008942169370129704</v>
+        <v>2.836888779711444E-05</v>
       </c>
       <c r="D32">
-        <v>0.9993579387664795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0002524781448300928</v>
+        <v>0.009771361947059631</v>
       </c>
       <c r="B33">
-        <v>0.9999206066131592</v>
+        <v>0.9971843957901001</v>
       </c>
       <c r="C33">
-        <v>6.107588745862813E-08</v>
+        <v>1.610372419236228E-05</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001651018974371254</v>
+        <v>0.009439610876142979</v>
       </c>
       <c r="B34">
-        <v>0.9999404549598694</v>
+        <v>0.9971843957901001</v>
       </c>
       <c r="C34">
-        <v>1.760384371607415E-08</v>
+        <v>2.006696013268083E-05</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0001969781733350828</v>
+        <v>0.009268703870475292</v>
       </c>
       <c r="B35">
-        <v>0.9999206066131592</v>
+        <v>0.9973778128623962</v>
       </c>
       <c r="C35">
-        <v>1.676204919931479E-05</v>
+        <v>2.664950807229616E-05</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001727664930513129</v>
+        <v>0.009822673164308071</v>
       </c>
       <c r="B36">
-        <v>0.9999404549598694</v>
+        <v>0.9970769286155701</v>
       </c>
       <c r="C36">
-        <v>1.021790740907136E-08</v>
+        <v>4.070589420734905E-05</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.000391929701436311</v>
+        <v>0.008154270239174366</v>
       </c>
       <c r="B37">
-        <v>0.9999206066131592</v>
+        <v>0.9976786971092224</v>
       </c>
       <c r="C37">
-        <v>2.192794212874105E-08</v>
+        <v>2.245294672320597E-05</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.441902986698551E-05</v>
+        <v>0.009952053427696228</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9972488284111023</v>
       </c>
       <c r="C38">
-        <v>3.750398658297627E-09</v>
+        <v>2.867738658096641E-05</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0005178839201107621</v>
+        <v>0.008208157494664192</v>
       </c>
       <c r="B39">
-        <v>0.9998610615730286</v>
+        <v>0.9975927472114563</v>
       </c>
       <c r="C39">
-        <v>3.739184830919839E-05</v>
+        <v>4.878155232290737E-05</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>6.187630060594529E-05</v>
+        <v>0.008729130029678345</v>
       </c>
       <c r="B40">
-        <v>0.9999801516532898</v>
+        <v>0.9974852800369263</v>
       </c>
       <c r="C40">
-        <v>1.39682798661056E-08</v>
+        <v>3.926633144146763E-05</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2.702166511880932E-06</v>
+        <v>0.009076619520783424</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9972488284111023</v>
       </c>
       <c r="C41">
-        <v>1.901980795082636E-08</v>
+        <v>2.148236853827257E-05</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>6.384252174029825E-06</v>
+        <v>0.008965450339019299</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9972058534622192</v>
       </c>
       <c r="C42">
-        <v>1.182518793996223E-08</v>
+        <v>2.146872975572478E-05</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>2.665468491613865E-05</v>
+        <v>0.008881161920726299</v>
       </c>
       <c r="B43">
-        <v>0.9999801516532898</v>
+        <v>0.9973778128623962</v>
       </c>
       <c r="C43">
-        <v>2.387150743743405E-05</v>
+        <v>1.39682088047266E-05</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.001925363787449896</v>
+        <v>0.00919934269040823</v>
       </c>
       <c r="B44">
-        <v>0.9998412132263184</v>
+        <v>0.9970983862876892</v>
       </c>
       <c r="C44">
-        <v>2.164017132599838E-06</v>
+        <v>1.024457469611662E-05</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001587800215929747</v>
+        <v>0.01101873908191919</v>
       </c>
       <c r="B45">
-        <v>0.9999404549598694</v>
+        <v>0.9970983862876892</v>
       </c>
       <c r="C45">
-        <v>2.365032436557613E-08</v>
+        <v>3.331856350996532E-05</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>1.689862983766943E-05</v>
+        <v>0.009201523847877979</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9974207878112793</v>
       </c>
       <c r="C46">
-        <v>7.98253623202072E-08</v>
+        <v>4.427980093169026E-05</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>1.212386177940061E-05</v>
+        <v>0.008552609011530876</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9974423050880432</v>
       </c>
       <c r="C47">
-        <v>1.22462118223865E-09</v>
+        <v>2.845989365596324E-05</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1.813702851904964E-06</v>
+        <v>0.008824082091450691</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9972918629646301</v>
       </c>
       <c r="C48">
-        <v>1.029440888089539E-08</v>
+        <v>2.785888864309527E-05</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>7.307546184165403E-05</v>
+        <v>0.009276360273361206</v>
       </c>
       <c r="B49">
-        <v>0.9999801516532898</v>
+        <v>0.9972058534622192</v>
       </c>
       <c r="C49">
-        <v>1.799310496153339E-07</v>
+        <v>1.546728526591323E-05</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0007718834094703197</v>
+        <v>0.009229958057403564</v>
       </c>
       <c r="B50">
-        <v>0.9998610615730286</v>
+        <v>0.9971413612365723</v>
       </c>
       <c r="C50">
-        <v>2.208121152591502E-08</v>
+        <v>9.153223800240085E-06</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0001982577232411131</v>
+        <v>0.009109106846153736</v>
       </c>
       <c r="B51">
-        <v>0.9999603033065796</v>
+        <v>0.9972703456878662</v>
       </c>
       <c r="C51">
-        <v>2.092915929097217E-05</v>
+        <v>1.234460796695203E-05</v>
       </c>
       <c r="D51">
         <v>1</v>

--- a/run_log/run_results/train_history/training_history_run_3.xlsx
+++ b/run_log/run_results/train_history/training_history_run_3.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1361090093851089</v>
+        <v>0.06327293813228607</v>
       </c>
       <c r="B2">
-        <v>0.9589046835899353</v>
+        <v>0.9886227250099182</v>
       </c>
       <c r="C2">
-        <v>0.01270137634128332</v>
+        <v>0.01683990657329559</v>
       </c>
       <c r="D2">
-        <v>0.9982866048812866</v>
+        <v>0.9982154965400696</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03866442292928696</v>
+        <v>0.0110556585714221</v>
       </c>
       <c r="B3">
-        <v>0.9925417900085449</v>
+        <v>0.9980016350746155</v>
       </c>
       <c r="C3">
-        <v>0.01010789256542921</v>
+        <v>0.01687898300588131</v>
       </c>
       <c r="D3">
-        <v>0.9985314011573792</v>
+        <v>0.9984385371208191</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.028123639523983</v>
+        <v>0.006905577145516872</v>
       </c>
       <c r="B4">
-        <v>0.9924772977828979</v>
+        <v>0.9982947707176208</v>
       </c>
       <c r="C4">
-        <v>0.004994395654648542</v>
+        <v>0.03968919813632965</v>
       </c>
       <c r="D4">
-        <v>0.998653769493103</v>
+        <v>0.9984385371208191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.02112744934856892</v>
+        <v>0.003651242004707456</v>
       </c>
       <c r="B5">
-        <v>0.9935089945793152</v>
+        <v>0.9989075660705566</v>
       </c>
       <c r="C5">
-        <v>0.001030554762110114</v>
+        <v>0.003612543921917677</v>
       </c>
       <c r="D5">
-        <v>0.9993880987167358</v>
+        <v>0.9992192983627319</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01390651520341635</v>
+        <v>0.001361945876851678</v>
       </c>
       <c r="B6">
-        <v>0.996582567691803</v>
+        <v>0.9994937777519226</v>
       </c>
       <c r="C6">
-        <v>0.001292318222112954</v>
+        <v>0.003926234319806099</v>
       </c>
       <c r="D6">
-        <v>0.9992656707763672</v>
+        <v>0.9994423389434814</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01182360760867596</v>
+        <v>0.001570164342410862</v>
       </c>
       <c r="B7">
-        <v>0.9968834519386292</v>
+        <v>0.9996269941329956</v>
       </c>
       <c r="C7">
-        <v>0.00038805918302387</v>
+        <v>0.002773643704131246</v>
       </c>
       <c r="D7">
-        <v>0.9998776316642761</v>
+        <v>0.9995538592338562</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01216852478682995</v>
+        <v>0.0005301287164911628</v>
       </c>
       <c r="B8">
-        <v>0.9970554113388062</v>
+        <v>0.9997868537902832</v>
       </c>
       <c r="C8">
-        <v>0.0003844704478979111</v>
+        <v>0.002318680752068758</v>
       </c>
       <c r="D8">
-        <v>0.9998776316642761</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01036333851516247</v>
+        <v>0.00170036347117275</v>
       </c>
       <c r="B9">
-        <v>0.9972488284111023</v>
+        <v>0.9996802806854248</v>
       </c>
       <c r="C9">
-        <v>0.0001792005496099591</v>
+        <v>0.003270498011261225</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01013538055121899</v>
+        <v>0.0001523441897006705</v>
       </c>
       <c r="B10">
-        <v>0.9972058534622192</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C10">
-        <v>0.0002043738059001043</v>
+        <v>0.002601358108222485</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.009414365515112877</v>
+        <v>0.0007136623607948422</v>
       </c>
       <c r="B11">
-        <v>0.9973993301391602</v>
+        <v>0.9998134970664978</v>
       </c>
       <c r="C11">
-        <v>7.145854760892689E-05</v>
+        <v>0.003124229377135634</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01229505334049463</v>
+        <v>0.0007594649214297533</v>
       </c>
       <c r="B12">
-        <v>0.9964965581893921</v>
+        <v>0.9997069239616394</v>
       </c>
       <c r="C12">
-        <v>7.885350350989029E-05</v>
+        <v>0.01760998740792274</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.992304265499115</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.009517963975667953</v>
+        <v>0.0005252372939139605</v>
       </c>
       <c r="B13">
-        <v>0.9972273707389832</v>
+        <v>0.9999200701713562</v>
       </c>
       <c r="C13">
-        <v>4.89922495034989E-05</v>
+        <v>0.003199307480826974</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.009159478358924389</v>
+        <v>0.0004926143446937203</v>
       </c>
       <c r="B14">
-        <v>0.9975067973136902</v>
+        <v>0.9998134970664978</v>
       </c>
       <c r="C14">
-        <v>7.038439071038738E-05</v>
+        <v>0.003098492277786136</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0102852089330554</v>
+        <v>0.000819545763079077</v>
       </c>
       <c r="B15">
-        <v>0.996797502040863</v>
+        <v>0.9997868537902832</v>
       </c>
       <c r="C15">
-        <v>2.73302666755626E-05</v>
+        <v>0.003536414820700884</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.009235069155693054</v>
+        <v>0.0002019653766183183</v>
       </c>
       <c r="B16">
-        <v>0.9973778128623962</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C16">
-        <v>2.974271956190933E-05</v>
+        <v>0.004196121357381344</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.009507066570222378</v>
+        <v>0.0005274725263006985</v>
       </c>
       <c r="B17">
-        <v>0.9971628785133362</v>
+        <v>0.9998934268951416</v>
       </c>
       <c r="C17">
-        <v>2.342590960324742E-05</v>
+        <v>0.002796070417389274</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.009460599161684513</v>
+        <v>0.0003469176299404353</v>
       </c>
       <c r="B18">
-        <v>0.9972273707389832</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C18">
-        <v>3.023721546924207E-05</v>
+        <v>0.003274097573012114</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.01005534641444683</v>
+        <v>7.005669613135979E-05</v>
       </c>
       <c r="B19">
-        <v>0.9970983862876892</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C19">
-        <v>2.633344229252543E-05</v>
+        <v>0.003827110165730119</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.01048480812460184</v>
+        <v>0.0001225347368745133</v>
       </c>
       <c r="B20">
-        <v>0.9968189597129822</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C20">
-        <v>2.50649045483442E-05</v>
+        <v>0.003550265450030565</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.009588534012436867</v>
+        <v>0.0004326587950345129</v>
       </c>
       <c r="B21">
-        <v>0.9971199035644531</v>
+        <v>0.9998934268951416</v>
       </c>
       <c r="C21">
-        <v>2.577550003479701E-05</v>
+        <v>0.003471905365586281</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0083968136459589</v>
+        <v>0.001067671691998839</v>
       </c>
       <c r="B22">
-        <v>0.9976786971092224</v>
+        <v>0.999866783618927</v>
       </c>
       <c r="C22">
-        <v>1.764850821928121E-05</v>
+        <v>0.004016472958028316</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.999665379524231</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.009256658144295216</v>
+        <v>0.0006713774055242538</v>
       </c>
       <c r="B23">
-        <v>0.9972058534622192</v>
+        <v>0.999866783618927</v>
       </c>
       <c r="C23">
-        <v>5.560421413974836E-05</v>
+        <v>0.003246141597628593</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.01049390714615583</v>
+        <v>0.0001092476595658809</v>
       </c>
       <c r="B24">
-        <v>0.99686199426651</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C24">
-        <v>6.46670232526958E-05</v>
+        <v>0.004160674288868904</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9995538592338562</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.008817553520202637</v>
+        <v>0.0001526341948192567</v>
       </c>
       <c r="B25">
-        <v>0.9975712299346924</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C25">
-        <v>1.875059570011217E-05</v>
+        <v>0.00329888123087585</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.009598582051694393</v>
+        <v>8.568457269575447E-05</v>
       </c>
       <c r="B26">
-        <v>0.9971628785133362</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C26">
-        <v>1.629848884476814E-05</v>
+        <v>0.003834961215034127</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.009154189378023148</v>
+        <v>4.26693404733669E-05</v>
       </c>
       <c r="B27">
-        <v>0.9972273707389832</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C27">
-        <v>2.933229916379787E-05</v>
+        <v>0.002556911902502179</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0097627779468894</v>
+        <v>0.0001664258743403479</v>
       </c>
       <c r="B28">
-        <v>0.9970983862876892</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C28">
-        <v>3.89008127967827E-05</v>
+        <v>0.00439690425992012</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.009429940022528172</v>
+        <v>0.0004350739473011345</v>
       </c>
       <c r="B29">
-        <v>0.9974637627601624</v>
+        <v>0.999866783618927</v>
       </c>
       <c r="C29">
-        <v>2.896509249694645E-05</v>
+        <v>0.006373071111738682</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.01116597559303045</v>
+        <v>0.0001394504506606609</v>
       </c>
       <c r="B30">
-        <v>0.9967114925384521</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C30">
-        <v>6.803328869864345E-05</v>
+        <v>0.006421537604182959</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.01012442074716091</v>
+        <v>1.3008558198635E-05</v>
       </c>
       <c r="B31">
-        <v>0.9969264268875122</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>3.724498674273491E-05</v>
+        <v>0.006306247785687447</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.008495848625898361</v>
+        <v>0.0003387824981473386</v>
       </c>
       <c r="B32">
-        <v>0.9975067973136902</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C32">
-        <v>2.836888779711444E-05</v>
+        <v>0.00570655195042491</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.009771361947059631</v>
+        <v>0.0001498584315413609</v>
       </c>
       <c r="B33">
-        <v>0.9971843957901001</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C33">
-        <v>1.610372419236228E-05</v>
+        <v>0.005583497229963541</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.009439610876142979</v>
+        <v>0.0003023763129021972</v>
       </c>
       <c r="B34">
-        <v>0.9971843957901001</v>
+        <v>0.9999200701713562</v>
       </c>
       <c r="C34">
-        <v>2.006696013268083E-05</v>
+        <v>0.003636211855337024</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.009268703870475292</v>
+        <v>9.151679478236474E-06</v>
       </c>
       <c r="B35">
-        <v>0.9973778128623962</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>2.664950807229616E-05</v>
+        <v>0.004160190932452679</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.009822673164308071</v>
+        <v>6.242999461392174E-06</v>
       </c>
       <c r="B36">
-        <v>0.9970769286155701</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>4.070589420734905E-05</v>
+        <v>0.00543748727068305</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.008154270239174366</v>
+        <v>0.0007000568439252675</v>
       </c>
       <c r="B37">
-        <v>0.9976786971092224</v>
+        <v>0.9997868537902832</v>
       </c>
       <c r="C37">
-        <v>2.245294672320597E-05</v>
+        <v>0.007759205531328917</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.009952053427696228</v>
+        <v>5.220238017500378E-05</v>
       </c>
       <c r="B38">
-        <v>0.9972488284111023</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C38">
-        <v>2.867738658096641E-05</v>
+        <v>0.008040698245167732</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.008208157494664192</v>
+        <v>0.0002016634098254144</v>
       </c>
       <c r="B39">
-        <v>0.9975927472114563</v>
+        <v>0.9999200701713562</v>
       </c>
       <c r="C39">
-        <v>4.878155232290737E-05</v>
+        <v>0.006658358499407768</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.008729130029678345</v>
+        <v>5.523686559172347E-05</v>
       </c>
       <c r="B40">
-        <v>0.9974852800369263</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C40">
-        <v>3.926633144146763E-05</v>
+        <v>0.008671056479215622</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.009076619520783424</v>
+        <v>1.530833651486319E-05</v>
       </c>
       <c r="B41">
-        <v>0.9972488284111023</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>2.148236853827257E-05</v>
+        <v>0.008674080483615398</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.008965450339019299</v>
+        <v>0.0001030903804348782</v>
       </c>
       <c r="B42">
-        <v>0.9972058534622192</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C42">
-        <v>2.146872975572478E-05</v>
+        <v>0.008542068302631378</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.008881161920726299</v>
+        <v>0.0001198840327560902</v>
       </c>
       <c r="B43">
-        <v>0.9973778128623962</v>
+        <v>0.9999733567237854</v>
       </c>
       <c r="C43">
-        <v>1.39682088047266E-05</v>
+        <v>0.007412600796669722</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.00919934269040823</v>
+        <v>0.0009276361670345068</v>
       </c>
       <c r="B44">
-        <v>0.9970983862876892</v>
+        <v>0.9999200701713562</v>
       </c>
       <c r="C44">
-        <v>1.024457469611662E-05</v>
+        <v>0.007634813897311687</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.01101873908191919</v>
+        <v>0.0003222703526262194</v>
       </c>
       <c r="B45">
-        <v>0.9970983862876892</v>
+        <v>0.9999200701713562</v>
       </c>
       <c r="C45">
-        <v>3.331856350996532E-05</v>
+        <v>0.006075161509215832</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.009201523847877979</v>
+        <v>0.0003632468869909644</v>
       </c>
       <c r="B46">
-        <v>0.9974207878112793</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C46">
-        <v>4.427980093169026E-05</v>
+        <v>0.006231239065527916</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.008552609011530876</v>
+        <v>0.001047316007316113</v>
       </c>
       <c r="B47">
-        <v>0.9974423050880432</v>
+        <v>0.9998134970664978</v>
       </c>
       <c r="C47">
-        <v>2.845989365596324E-05</v>
+        <v>0.007820194587111473</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.008824082091450691</v>
+        <v>0.0003526316431816667</v>
       </c>
       <c r="B48">
-        <v>0.9972918629646301</v>
+        <v>0.9998934268951416</v>
       </c>
       <c r="C48">
-        <v>2.785888864309527E-05</v>
+        <v>0.007436858955770731</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.009276360273361206</v>
+        <v>7.197929517133161E-05</v>
       </c>
       <c r="B49">
-        <v>0.9972058534622192</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="C49">
-        <v>1.546728526591323E-05</v>
+        <v>0.008635526522994041</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.009229958057403564</v>
+        <v>2.932405004685279E-05</v>
       </c>
       <c r="B50">
-        <v>0.9971413612365723</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>9.153223800240085E-06</v>
+        <v>0.008642366155982018</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.009109106846153736</v>
+        <v>1.847551720857155E-05</v>
       </c>
       <c r="B51">
-        <v>0.9972703456878662</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>1.234460796695203E-05</v>
+        <v>0.009329378604888916</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9997769594192505</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_3.xlsx
+++ b/run_log/run_results/train_history/training_history_run_3.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.06327293813228607</v>
+        <v>0.06904570013284683</v>
       </c>
       <c r="B2">
-        <v>0.9886227250099182</v>
+        <v>0.9783502817153931</v>
       </c>
       <c r="C2">
-        <v>0.01683990657329559</v>
+        <v>0.02802884019911289</v>
       </c>
       <c r="D2">
-        <v>0.9982154965400696</v>
+        <v>0.9923202395439148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.0110556585714221</v>
+        <v>0.00926543865352869</v>
       </c>
       <c r="B3">
-        <v>0.9980016350746155</v>
+        <v>0.9983460307121277</v>
       </c>
       <c r="C3">
-        <v>0.01687898300588131</v>
+        <v>0.01862300373613834</v>
       </c>
       <c r="D3">
-        <v>0.9984385371208191</v>
+        <v>0.9937091469764709</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.006905577145516872</v>
+        <v>0.005135770421475172</v>
       </c>
       <c r="B4">
-        <v>0.9982947707176208</v>
+        <v>0.9987913370132446</v>
       </c>
       <c r="C4">
-        <v>0.03968919813632965</v>
+        <v>0.007421276532113552</v>
       </c>
       <c r="D4">
-        <v>0.9984385371208191</v>
+        <v>0.9966503381729126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003651242004707456</v>
+        <v>0.002369061810895801</v>
       </c>
       <c r="B5">
-        <v>0.9989075660705566</v>
+        <v>0.9993850588798523</v>
       </c>
       <c r="C5">
-        <v>0.003612543921917677</v>
+        <v>0.003677255939692259</v>
       </c>
       <c r="D5">
-        <v>0.9992192983627319</v>
+        <v>0.998774528503418</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001361945876851678</v>
+        <v>0.001487272442318499</v>
       </c>
       <c r="B6">
-        <v>0.9994937777519226</v>
+        <v>0.9997031092643738</v>
       </c>
       <c r="C6">
-        <v>0.003926234319806099</v>
+        <v>0.003892001695930958</v>
       </c>
       <c r="D6">
-        <v>0.9994423389434814</v>
+        <v>0.9988561868667603</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001570164342410862</v>
+        <v>0.002277396852150559</v>
       </c>
       <c r="B7">
-        <v>0.9996269941329956</v>
+        <v>0.9995971322059631</v>
       </c>
       <c r="C7">
-        <v>0.002773643704131246</v>
+        <v>0.001003929879516363</v>
       </c>
       <c r="D7">
-        <v>0.9995538592338562</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0005301287164911628</v>
+        <v>0.001231810194440186</v>
       </c>
       <c r="B8">
-        <v>0.9997868537902832</v>
+        <v>0.9996607303619385</v>
       </c>
       <c r="C8">
-        <v>0.002318680752068758</v>
+        <v>0.001089787343516946</v>
       </c>
       <c r="D8">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.00170036347117275</v>
+        <v>0.0009852364892140031</v>
       </c>
       <c r="B9">
-        <v>0.9996802806854248</v>
+        <v>0.9998091459274292</v>
       </c>
       <c r="C9">
-        <v>0.003270498011261225</v>
+        <v>0.006672353018075228</v>
       </c>
       <c r="D9">
-        <v>0.9997769594192505</v>
+        <v>0.9977124333381653</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0001523441897006705</v>
+        <v>0.001200216240249574</v>
       </c>
       <c r="B10">
-        <v>0.9999467134475708</v>
+        <v>0.9996607303619385</v>
       </c>
       <c r="C10">
-        <v>0.002601358108222485</v>
+        <v>0.003408713499084115</v>
       </c>
       <c r="D10">
-        <v>0.9997769594192505</v>
+        <v>0.998120903968811</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0007136623607948422</v>
+        <v>0.0006448489730246365</v>
       </c>
       <c r="B11">
-        <v>0.9998134970664978</v>
+        <v>0.9998303651809692</v>
       </c>
       <c r="C11">
-        <v>0.003124229377135634</v>
+        <v>0.0002576952974777669</v>
       </c>
       <c r="D11">
-        <v>0.9997769594192505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007594649214297533</v>
+        <v>0.0004412027483340353</v>
       </c>
       <c r="B12">
-        <v>0.9997069239616394</v>
+        <v>0.9999151825904846</v>
       </c>
       <c r="C12">
-        <v>0.01760998740792274</v>
+        <v>0.000298517057672143</v>
       </c>
       <c r="D12">
-        <v>0.992304265499115</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005252372939139605</v>
+        <v>0.00103677180595696</v>
       </c>
       <c r="B13">
-        <v>0.9999200701713562</v>
+        <v>0.9997455477714539</v>
       </c>
       <c r="C13">
-        <v>0.003199307480826974</v>
+        <v>0.0007634095381945372</v>
       </c>
       <c r="D13">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0004926143446937203</v>
+        <v>0.000363870058208704</v>
       </c>
       <c r="B14">
-        <v>0.9998134970664978</v>
+        <v>0.9999151825904846</v>
       </c>
       <c r="C14">
-        <v>0.003098492277786136</v>
+        <v>0.0004264598537702113</v>
       </c>
       <c r="D14">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.000819545763079077</v>
+        <v>0.0006853825761936605</v>
       </c>
       <c r="B15">
-        <v>0.9997868537902832</v>
+        <v>0.9998727440834045</v>
       </c>
       <c r="C15">
-        <v>0.003536414820700884</v>
+        <v>0.0002707781677599996</v>
       </c>
       <c r="D15">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0002019653766183183</v>
+        <v>6.227634730748832E-05</v>
       </c>
       <c r="B16">
-        <v>0.9999467134475708</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.004196121357381344</v>
+        <v>0.00141830206848681</v>
       </c>
       <c r="D16">
-        <v>0.9997769594192505</v>
+        <v>0.9993463754653931</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0005274725263006985</v>
+        <v>0.0006059093866497278</v>
       </c>
       <c r="B17">
-        <v>0.9998934268951416</v>
+        <v>0.9997879266738892</v>
       </c>
       <c r="C17">
-        <v>0.002796070417389274</v>
+        <v>0.001903250580653548</v>
       </c>
       <c r="D17">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0003469176299404353</v>
+        <v>0.0003233972238376737</v>
       </c>
       <c r="B18">
-        <v>0.9999467134475708</v>
+        <v>0.9998727440834045</v>
       </c>
       <c r="C18">
-        <v>0.003274097573012114</v>
+        <v>0.002583579858765006</v>
       </c>
       <c r="D18">
-        <v>0.9997769594192505</v>
+        <v>0.9993463754653931</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>7.005669613135979E-05</v>
+        <v>0.0004546408890746534</v>
       </c>
       <c r="B19">
-        <v>0.9999733567237854</v>
+        <v>0.9999151825904846</v>
       </c>
       <c r="C19">
-        <v>0.003827110165730119</v>
+        <v>0.003665063995867968</v>
       </c>
       <c r="D19">
-        <v>0.9997769594192505</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0001225347368745133</v>
+        <v>0.0001014155786833726</v>
       </c>
       <c r="B20">
-        <v>0.9999467134475708</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C20">
-        <v>0.003550265450030565</v>
+        <v>0.0009293059119954705</v>
       </c>
       <c r="D20">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0004326587950345129</v>
+        <v>0.0003282561083324254</v>
       </c>
       <c r="B21">
-        <v>0.9998934268951416</v>
+        <v>0.9998939633369446</v>
       </c>
       <c r="C21">
-        <v>0.003471905365586281</v>
+        <v>0.0008562011062167585</v>
       </c>
       <c r="D21">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.001067671691998839</v>
+        <v>0.0003270724264439195</v>
       </c>
       <c r="B22">
-        <v>0.999866783618927</v>
+        <v>0.9999364018440247</v>
       </c>
       <c r="C22">
-        <v>0.004016472958028316</v>
+        <v>0.002143299905583262</v>
       </c>
       <c r="D22">
-        <v>0.999665379524231</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0006713774055242538</v>
+        <v>3.890689549734816E-05</v>
       </c>
       <c r="B23">
-        <v>0.999866783618927</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.003246141597628593</v>
+        <v>0.001163584645837545</v>
       </c>
       <c r="D23">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0001092476595658809</v>
+        <v>5.231006980466191E-06</v>
       </c>
       <c r="B24">
-        <v>0.9999733567237854</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.004160674288868904</v>
+        <v>0.001324944547377527</v>
       </c>
       <c r="D24">
-        <v>0.9995538592338562</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0001526341948192567</v>
+        <v>0.0005088758189231157</v>
       </c>
       <c r="B25">
-        <v>0.9999733567237854</v>
+        <v>0.9998939633369446</v>
       </c>
       <c r="C25">
-        <v>0.00329888123087585</v>
+        <v>0.003270711982622743</v>
       </c>
       <c r="D25">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>8.568457269575447E-05</v>
+        <v>0.0001324149052379653</v>
       </c>
       <c r="B26">
-        <v>0.9999733567237854</v>
+        <v>0.9999151825904846</v>
       </c>
       <c r="C26">
-        <v>0.003834961215034127</v>
+        <v>0.001382868154905736</v>
       </c>
       <c r="D26">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>4.26693404733669E-05</v>
+        <v>0.0006425399915315211</v>
       </c>
       <c r="B27">
-        <v>0.9999733567237854</v>
+        <v>0.9998727440834045</v>
       </c>
       <c r="C27">
-        <v>0.002556911902502179</v>
+        <v>0.001903191790916026</v>
       </c>
       <c r="D27">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0001664258743403479</v>
+        <v>0.0001157905790023506</v>
       </c>
       <c r="B28">
-        <v>0.9999467134475708</v>
+        <v>0.9999364018440247</v>
       </c>
       <c r="C28">
-        <v>0.00439690425992012</v>
+        <v>0.002834173617884517</v>
       </c>
       <c r="D28">
-        <v>0.9997769594192505</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0004350739473011345</v>
+        <v>0.0007897136965766549</v>
       </c>
       <c r="B29">
-        <v>0.999866783618927</v>
+        <v>0.9998515844345093</v>
       </c>
       <c r="C29">
-        <v>0.006373071111738682</v>
+        <v>0.00139052071608603</v>
       </c>
       <c r="D29">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001394504506606609</v>
+        <v>0.0002155366673832759</v>
       </c>
       <c r="B30">
-        <v>0.9999467134475708</v>
+        <v>0.9999364018440247</v>
       </c>
       <c r="C30">
-        <v>0.006421537604182959</v>
+        <v>0.0003383481525816023</v>
       </c>
       <c r="D30">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>1.3008558198635E-05</v>
+        <v>0.0002299517509527504</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9999364018440247</v>
       </c>
       <c r="C31">
-        <v>0.006306247785687447</v>
+        <v>0.0005281400517560542</v>
       </c>
       <c r="D31">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0003387824981473386</v>
+        <v>0.0001492913725087419</v>
       </c>
       <c r="B32">
-        <v>0.9999467134475708</v>
+        <v>0.9999364018440247</v>
       </c>
       <c r="C32">
-        <v>0.00570655195042491</v>
+        <v>0.001027223537676036</v>
       </c>
       <c r="D32">
-        <v>0.9997769594192505</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001498584315413609</v>
+        <v>1.127250470744912E-05</v>
       </c>
       <c r="B33">
-        <v>0.9999733567237854</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.005583497229963541</v>
+        <v>0.0005563569138757885</v>
       </c>
       <c r="D33">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0003023763129021972</v>
+        <v>0.0007178789237514138</v>
       </c>
       <c r="B34">
-        <v>0.9999200701713562</v>
+        <v>0.9998727440834045</v>
       </c>
       <c r="C34">
-        <v>0.003636211855337024</v>
+        <v>0.0005911352345719934</v>
       </c>
       <c r="D34">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>9.151679478236474E-06</v>
+        <v>0.0003449516952969134</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9999575614929199</v>
       </c>
       <c r="C35">
-        <v>0.004160190932452679</v>
+        <v>0.0002298962790518999</v>
       </c>
       <c r="D35">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>6.242999461392174E-06</v>
+        <v>0.0001533441536594182</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9999575614929199</v>
       </c>
       <c r="C36">
-        <v>0.00543748727068305</v>
+        <v>0.0002323735825484619</v>
       </c>
       <c r="D36">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0007000568439252675</v>
+        <v>0.0001315911504207179</v>
       </c>
       <c r="B37">
-        <v>0.9997868537902832</v>
+        <v>0.9999575614929199</v>
       </c>
       <c r="C37">
-        <v>0.007759205531328917</v>
+        <v>0.0009848427725955844</v>
       </c>
       <c r="D37">
-        <v>0.9997769594192505</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>5.220238017500378E-05</v>
+        <v>0.0007106171105988324</v>
       </c>
       <c r="B38">
-        <v>0.9999733567237854</v>
+        <v>0.9998727440834045</v>
       </c>
       <c r="C38">
-        <v>0.008040698245167732</v>
+        <v>0.0002411903842585161</v>
       </c>
       <c r="D38">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0002016634098254144</v>
+        <v>9.992806008085608E-05</v>
       </c>
       <c r="B39">
-        <v>0.9999200701713562</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C39">
-        <v>0.006658358499407768</v>
+        <v>0.0001941750379046425</v>
       </c>
       <c r="D39">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>5.523686559172347E-05</v>
+        <v>8.794540008238982E-06</v>
       </c>
       <c r="B40">
-        <v>0.9999733567237854</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.008671056479215622</v>
+        <v>8.571356011088938E-05</v>
       </c>
       <c r="D40">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1.530833651486319E-05</v>
+        <v>0.0002131737710442394</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9999364018440247</v>
       </c>
       <c r="C41">
-        <v>0.008674080483615398</v>
+        <v>0.001179247512482107</v>
       </c>
       <c r="D41">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0001030903804348782</v>
+        <v>0.0003750875184778124</v>
       </c>
       <c r="B42">
-        <v>0.9999733567237854</v>
+        <v>0.9998515844345093</v>
       </c>
       <c r="C42">
-        <v>0.008542068302631378</v>
+        <v>0.0006659092614427209</v>
       </c>
       <c r="D42">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001198840327560902</v>
+        <v>0.0003728620358742774</v>
       </c>
       <c r="B43">
-        <v>0.9999733567237854</v>
+        <v>0.9999151825904846</v>
       </c>
       <c r="C43">
-        <v>0.007412600796669722</v>
+        <v>2.209134800068568E-05</v>
       </c>
       <c r="D43">
-        <v>0.9997769594192505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0009276361670345068</v>
+        <v>6.784814559068764E-06</v>
       </c>
       <c r="B44">
-        <v>0.9999200701713562</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.007634813897311687</v>
+        <v>5.038882227381691E-05</v>
       </c>
       <c r="D44">
-        <v>0.9997769594192505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0003222703526262194</v>
+        <v>0.0001118665022659115</v>
       </c>
       <c r="B45">
-        <v>0.9999200701713562</v>
+        <v>0.9999575614929199</v>
       </c>
       <c r="C45">
-        <v>0.006075161509215832</v>
+        <v>0.0003329692408442497</v>
       </c>
       <c r="D45">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0003632468869909644</v>
+        <v>5.846857220603852E-06</v>
       </c>
       <c r="B46">
-        <v>0.9999467134475708</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.006231239065527916</v>
+        <v>0.0009299021912738681</v>
       </c>
       <c r="D46">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.001047316007316113</v>
+        <v>1.133637761085993E-05</v>
       </c>
       <c r="B47">
-        <v>0.9998134970664978</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.007820194587111473</v>
+        <v>0.0009652819717302918</v>
       </c>
       <c r="D47">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003526316431816667</v>
+        <v>0.0002560740394983441</v>
       </c>
       <c r="B48">
-        <v>0.9998934268951416</v>
+        <v>0.9999151825904846</v>
       </c>
       <c r="C48">
-        <v>0.007436858955770731</v>
+        <v>0.001655063475482166</v>
       </c>
       <c r="D48">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>7.197929517133161E-05</v>
+        <v>0.0003139660984743387</v>
       </c>
       <c r="B49">
-        <v>0.9999467134475708</v>
+        <v>0.9999575614929199</v>
       </c>
       <c r="C49">
-        <v>0.008635526522994041</v>
+        <v>0.0008184186881408095</v>
       </c>
       <c r="D49">
-        <v>0.9997769594192505</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>2.932405004685279E-05</v>
+        <v>0.0005276098381727934</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9999364018440247</v>
       </c>
       <c r="C50">
-        <v>0.008642366155982018</v>
+        <v>0.0009334432543255389</v>
       </c>
       <c r="D50">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1.847551720857155E-05</v>
+        <v>0.0001398469612468034</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C51">
-        <v>0.009329378604888916</v>
+        <v>0.0004749663057737052</v>
       </c>
       <c r="D51">
-        <v>0.9997769594192505</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
   </sheetData>
